--- a/DB/DBDictionary_1.0.2.xlsx
+++ b/DB/DBDictionary_1.0.2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="190">
   <si>
     <t>Description</t>
   </si>
@@ -582,10 +582,13 @@
     <t>Identificativo dello stato .</t>
   </si>
   <si>
-    <t>0 reject, 1 accept, 2 pending, 3 notSend</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chiave esterna verso la tabella Student </t>
+  </si>
+  <si>
+    <t>0 Rfiutato, 1 Accettato, 2 In attesa, 3 Non inviato</t>
+  </si>
+  <si>
+    <t>0 Iniziato, 1 In attesa di compilazione questionario, 2 Concluso e approvato</t>
   </si>
 </sst>
 </file>
@@ -1238,6 +1241,60 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1247,15 +1304,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1282,51 +1330,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="115">
@@ -1868,8 +1871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82:H82"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="G120" sqref="G120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1887,41 +1890,41 @@
   <sheetData>
     <row r="1" spans="2:10" ht="13" customHeight="1"/>
     <row r="3" spans="2:10">
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
     </row>
     <row r="5" spans="2:10" ht="21" customHeight="1">
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
     </row>
     <row r="6" spans="2:10" ht="16" thickBot="1"/>
     <row r="7" spans="2:10" ht="21" thickBot="1">
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="100"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="88"/>
     </row>
     <row r="8" spans="2:10" ht="16" thickBot="1">
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="97"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="85"/>
       <c r="J8" s="15" t="s">
         <v>21</v>
       </c>
@@ -1930,14 +1933,14 @@
       <c r="B9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="92" t="s">
+      <c r="C9" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="94"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="82"/>
       <c r="J9" s="15" t="s">
         <v>6</v>
       </c>
@@ -2114,14 +2117,14 @@
       <c r="B17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="88" t="s">
+      <c r="C17" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="90"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="76"/>
       <c r="J17" s="15" t="s">
         <v>152</v>
       </c>
@@ -2130,14 +2133,14 @@
       <c r="B18" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="76" t="s">
+      <c r="C18" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="79"/>
     </row>
     <row r="19" spans="2:10" ht="16" thickBot="1">
       <c r="B19" s="10" t="s">
@@ -2238,27 +2241,27 @@
       <c r="B24" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="88" t="s">
+      <c r="C24" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="102"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="90"/>
     </row>
     <row r="25" spans="2:10" ht="16" thickBot="1">
       <c r="B25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="76" t="s">
+      <c r="C25" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="79"/>
     </row>
     <row r="26" spans="2:10" ht="16" thickBot="1">
       <c r="B26" s="10" t="s">
@@ -2551,27 +2554,27 @@
       <c r="B39" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="88" t="s">
+      <c r="C39" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="89"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="89"/>
-      <c r="G39" s="89"/>
-      <c r="H39" s="90"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="76"/>
     </row>
     <row r="40" spans="1:9" ht="16" thickBot="1">
       <c r="B40" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="76" t="s">
+      <c r="C40" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="D40" s="77"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="78"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="78"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="78"/>
+      <c r="H40" s="79"/>
     </row>
     <row r="41" spans="1:9" ht="16" thickBot="1">
       <c r="B41" s="10" t="s">
@@ -2793,27 +2796,27 @@
       <c r="B51" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="88" t="s">
+      <c r="C51" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="D51" s="89"/>
-      <c r="E51" s="89"/>
-      <c r="F51" s="89"/>
-      <c r="G51" s="89"/>
-      <c r="H51" s="90"/>
+      <c r="D51" s="75"/>
+      <c r="E51" s="75"/>
+      <c r="F51" s="75"/>
+      <c r="G51" s="75"/>
+      <c r="H51" s="76"/>
     </row>
     <row r="52" spans="2:8" ht="16" thickBot="1">
       <c r="B52" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C52" s="76" t="s">
+      <c r="C52" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="D52" s="77"/>
-      <c r="E52" s="77"/>
-      <c r="F52" s="77"/>
-      <c r="G52" s="77"/>
-      <c r="H52" s="78"/>
+      <c r="D52" s="78"/>
+      <c r="E52" s="78"/>
+      <c r="F52" s="78"/>
+      <c r="G52" s="78"/>
+      <c r="H52" s="79"/>
     </row>
     <row r="53" spans="2:8" ht="16" thickBot="1">
       <c r="B53" s="10" t="s">
@@ -2989,27 +2992,27 @@
       <c r="B61" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C61" s="88" t="s">
+      <c r="C61" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D61" s="89"/>
-      <c r="E61" s="89"/>
-      <c r="F61" s="89"/>
-      <c r="G61" s="89"/>
-      <c r="H61" s="90"/>
+      <c r="D61" s="75"/>
+      <c r="E61" s="75"/>
+      <c r="F61" s="75"/>
+      <c r="G61" s="75"/>
+      <c r="H61" s="76"/>
     </row>
     <row r="62" spans="2:8" ht="16" thickBot="1">
       <c r="B62" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C62" s="76" t="s">
+      <c r="C62" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="D62" s="77"/>
-      <c r="E62" s="77"/>
-      <c r="F62" s="77"/>
-      <c r="G62" s="77"/>
-      <c r="H62" s="78"/>
+      <c r="D62" s="78"/>
+      <c r="E62" s="78"/>
+      <c r="F62" s="78"/>
+      <c r="G62" s="78"/>
+      <c r="H62" s="79"/>
     </row>
     <row r="63" spans="2:8" ht="16" thickBot="1">
       <c r="B63" s="10" t="s">
@@ -3093,27 +3096,27 @@
       <c r="B67" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C67" s="88" t="s">
+      <c r="C67" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="D67" s="89"/>
-      <c r="E67" s="89"/>
-      <c r="F67" s="89"/>
-      <c r="G67" s="89"/>
-      <c r="H67" s="90"/>
+      <c r="D67" s="75"/>
+      <c r="E67" s="75"/>
+      <c r="F67" s="75"/>
+      <c r="G67" s="75"/>
+      <c r="H67" s="76"/>
     </row>
     <row r="68" spans="2:8" ht="16" thickBot="1">
       <c r="B68" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C68" s="76" t="s">
+      <c r="C68" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="D68" s="77"/>
-      <c r="E68" s="77"/>
-      <c r="F68" s="77"/>
-      <c r="G68" s="77"/>
-      <c r="H68" s="78"/>
+      <c r="D68" s="78"/>
+      <c r="E68" s="78"/>
+      <c r="F68" s="78"/>
+      <c r="G68" s="78"/>
+      <c r="H68" s="79"/>
     </row>
     <row r="69" spans="2:8" ht="16" thickBot="1">
       <c r="B69" s="10" t="s">
@@ -3404,27 +3407,27 @@
       <c r="B82" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C82" s="88" t="s">
+      <c r="C82" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="D82" s="89"/>
-      <c r="E82" s="89"/>
-      <c r="F82" s="89"/>
-      <c r="G82" s="89"/>
-      <c r="H82" s="90"/>
+      <c r="D82" s="75"/>
+      <c r="E82" s="75"/>
+      <c r="F82" s="75"/>
+      <c r="G82" s="75"/>
+      <c r="H82" s="76"/>
     </row>
     <row r="83" spans="2:8" ht="16" thickBot="1">
       <c r="B83" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C83" s="76" t="s">
+      <c r="C83" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="D83" s="77"/>
-      <c r="E83" s="77"/>
-      <c r="F83" s="77"/>
-      <c r="G83" s="77"/>
-      <c r="H83" s="78"/>
+      <c r="D83" s="78"/>
+      <c r="E83" s="78"/>
+      <c r="F83" s="78"/>
+      <c r="G83" s="78"/>
+      <c r="H83" s="79"/>
     </row>
     <row r="84" spans="2:8" ht="16" thickBot="1">
       <c r="B84" s="10" t="s">
@@ -3450,25 +3453,25 @@
       </c>
     </row>
     <row r="85" spans="2:8">
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="C85" s="22" t="s">
+      <c r="C85" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D85" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="E85" s="22">
-        <v>1</v>
-      </c>
-      <c r="F85" s="22">
+      <c r="E85" s="42">
+        <v>1</v>
+      </c>
+      <c r="F85" s="42">
         <v>2147483647</v>
       </c>
-      <c r="G85" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="H85" s="22" t="s">
+      <c r="G85" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="H85" s="42" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3500,27 +3503,27 @@
       <c r="B88" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C88" s="88" t="s">
+      <c r="C88" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="D88" s="89"/>
-      <c r="E88" s="89"/>
-      <c r="F88" s="89"/>
-      <c r="G88" s="89"/>
-      <c r="H88" s="90"/>
+      <c r="D88" s="75"/>
+      <c r="E88" s="75"/>
+      <c r="F88" s="75"/>
+      <c r="G88" s="75"/>
+      <c r="H88" s="76"/>
     </row>
     <row r="89" spans="2:8" ht="16" thickBot="1">
       <c r="B89" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C89" s="76" t="s">
+      <c r="C89" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="D89" s="77"/>
-      <c r="E89" s="77"/>
-      <c r="F89" s="77"/>
-      <c r="G89" s="77"/>
-      <c r="H89" s="78"/>
+      <c r="D89" s="78"/>
+      <c r="E89" s="78"/>
+      <c r="F89" s="78"/>
+      <c r="G89" s="78"/>
+      <c r="H89" s="79"/>
     </row>
     <row r="90" spans="2:8" ht="16" thickBot="1">
       <c r="B90" s="10" t="s">
@@ -3734,27 +3737,27 @@
       <c r="B100" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C100" s="73" t="s">
+      <c r="C100" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="D100" s="74"/>
-      <c r="E100" s="74"/>
-      <c r="F100" s="74"/>
-      <c r="G100" s="74"/>
-      <c r="H100" s="75"/>
+      <c r="D100" s="92"/>
+      <c r="E100" s="92"/>
+      <c r="F100" s="92"/>
+      <c r="G100" s="92"/>
+      <c r="H100" s="93"/>
     </row>
     <row r="101" spans="2:8" ht="16" thickBot="1">
       <c r="B101" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C101" s="76" t="s">
+      <c r="C101" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="D101" s="77"/>
-      <c r="E101" s="77"/>
-      <c r="F101" s="77"/>
-      <c r="G101" s="77"/>
-      <c r="H101" s="78"/>
+      <c r="D101" s="78"/>
+      <c r="E101" s="78"/>
+      <c r="F101" s="78"/>
+      <c r="G101" s="78"/>
+      <c r="H101" s="79"/>
     </row>
     <row r="102" spans="2:8" ht="16" thickBot="1">
       <c r="B102" s="10" t="s">
@@ -3810,7 +3813,7 @@
         <v>15</v>
       </c>
       <c r="D104" s="70" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E104" s="71">
         <v>0</v>
@@ -3853,27 +3856,27 @@
       <c r="B108" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C108" s="85" t="s">
+      <c r="C108" s="100" t="s">
         <v>159</v>
       </c>
-      <c r="D108" s="86"/>
-      <c r="E108" s="86"/>
-      <c r="F108" s="86"/>
-      <c r="G108" s="86"/>
-      <c r="H108" s="87"/>
+      <c r="D108" s="101"/>
+      <c r="E108" s="101"/>
+      <c r="F108" s="101"/>
+      <c r="G108" s="101"/>
+      <c r="H108" s="102"/>
     </row>
     <row r="109" spans="2:8" ht="16" thickBot="1">
       <c r="B109" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C109" s="82" t="s">
+      <c r="C109" s="97" t="s">
         <v>137</v>
       </c>
-      <c r="D109" s="83"/>
-      <c r="E109" s="83"/>
-      <c r="F109" s="83"/>
-      <c r="G109" s="83"/>
-      <c r="H109" s="84"/>
+      <c r="D109" s="98"/>
+      <c r="E109" s="98"/>
+      <c r="F109" s="98"/>
+      <c r="G109" s="98"/>
+      <c r="H109" s="99"/>
     </row>
     <row r="110" spans="2:8" ht="16" thickBot="1">
       <c r="B110" s="46" t="s">
@@ -3995,27 +3998,27 @@
       <c r="B116" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C116" s="73" t="s">
+      <c r="C116" s="91" t="s">
         <v>172</v>
       </c>
-      <c r="D116" s="74"/>
-      <c r="E116" s="74"/>
-      <c r="F116" s="74"/>
-      <c r="G116" s="74"/>
-      <c r="H116" s="75"/>
+      <c r="D116" s="92"/>
+      <c r="E116" s="92"/>
+      <c r="F116" s="92"/>
+      <c r="G116" s="92"/>
+      <c r="H116" s="93"/>
     </row>
     <row r="117" spans="2:8" ht="16" thickBot="1">
       <c r="B117" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C117" s="76" t="s">
+      <c r="C117" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="D117" s="77"/>
-      <c r="E117" s="77"/>
-      <c r="F117" s="77"/>
-      <c r="G117" s="77"/>
-      <c r="H117" s="78"/>
+      <c r="D117" s="78"/>
+      <c r="E117" s="78"/>
+      <c r="F117" s="78"/>
+      <c r="G117" s="78"/>
+      <c r="H117" s="79"/>
     </row>
     <row r="118" spans="2:8" ht="16" thickBot="1">
       <c r="B118" s="10" t="s">
@@ -4057,7 +4060,7 @@
         <v>2147483647</v>
       </c>
       <c r="G119" s="42" t="s">
-        <v>89</v>
+        <v>189</v>
       </c>
       <c r="H119" s="58" t="s">
         <v>24</v>
@@ -4091,27 +4094,27 @@
       <c r="B122" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C122" s="79" t="s">
+      <c r="C122" s="94" t="s">
         <v>176</v>
       </c>
-      <c r="D122" s="80"/>
-      <c r="E122" s="80"/>
-      <c r="F122" s="80"/>
-      <c r="G122" s="80"/>
-      <c r="H122" s="81"/>
+      <c r="D122" s="95"/>
+      <c r="E122" s="95"/>
+      <c r="F122" s="95"/>
+      <c r="G122" s="95"/>
+      <c r="H122" s="96"/>
     </row>
     <row r="123" spans="2:8" ht="16" thickBot="1">
       <c r="B123" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C123" s="82" t="s">
+      <c r="C123" s="97" t="s">
         <v>79</v>
       </c>
-      <c r="D123" s="83"/>
-      <c r="E123" s="83"/>
-      <c r="F123" s="83"/>
-      <c r="G123" s="83"/>
-      <c r="H123" s="84"/>
+      <c r="D123" s="98"/>
+      <c r="E123" s="98"/>
+      <c r="F123" s="98"/>
+      <c r="G123" s="98"/>
+      <c r="H123" s="99"/>
     </row>
     <row r="124" spans="2:8" ht="16" thickBot="1">
       <c r="B124" s="46" t="s">
@@ -4253,6 +4256,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C116:H116"/>
+    <mergeCell ref="C117:H117"/>
+    <mergeCell ref="C122:H122"/>
+    <mergeCell ref="C123:H123"/>
+    <mergeCell ref="C101:H101"/>
+    <mergeCell ref="C108:H108"/>
+    <mergeCell ref="C109:H109"/>
+    <mergeCell ref="C88:H88"/>
+    <mergeCell ref="C100:H100"/>
+    <mergeCell ref="C89:H89"/>
+    <mergeCell ref="C82:H82"/>
+    <mergeCell ref="C83:H83"/>
     <mergeCell ref="B3:C5"/>
     <mergeCell ref="C67:H67"/>
     <mergeCell ref="C68:H68"/>
@@ -4269,18 +4284,6 @@
     <mergeCell ref="C24:H24"/>
     <mergeCell ref="C25:H25"/>
     <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C88:H88"/>
-    <mergeCell ref="C100:H100"/>
-    <mergeCell ref="C89:H89"/>
-    <mergeCell ref="C82:H82"/>
-    <mergeCell ref="C83:H83"/>
-    <mergeCell ref="C116:H116"/>
-    <mergeCell ref="C117:H117"/>
-    <mergeCell ref="C122:H122"/>
-    <mergeCell ref="C123:H123"/>
-    <mergeCell ref="C101:H101"/>
-    <mergeCell ref="C108:H108"/>
-    <mergeCell ref="C109:H109"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
